--- a/biology/Médecine/Adam_Ferdynand_Adamowicz/Adam_Ferdynand_Adamowicz.xlsx
+++ b/biology/Médecine/Adam_Ferdynand_Adamowicz/Adam_Ferdynand_Adamowicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Ferdynand Adamowicz, né le 6 juillet 1802 à Vilnius et mort le 30 avril 1881 dans la même ville, est un médecin polonais et l'un des pionniers de la médecine vétérinaire polonaise. Il est également considéré comme le fondateur de l'anatomie comparative polonaise. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Ferdynand Adamowicz naît le 6 juillet 1802 à Vilnius. Il étudie la philosophie, la médecine et la médecine vétérinaire à partir de 1818 à l'université de Vilnius, où il obtient son doctorat en médecine en 1824. Dans les années suivantes, il entreprend des voyages de recherche en tant qu'assistant scientifique. En 1834, il retourne à Vilnius et devient professeur associé, puis professeur titulaire de l'Académie médico-chirurgicale en 1835. Il y enseigne l'épizootiologie et l'anatomie comparée. De 1839 jusqu'à la fermeture de l'Académie, il enseigne l'histoire de la médecine et la littérature médicale.
-À partir de 1841, il est président de la Société médicale et devient médecin à l'hôpital juif en 1842, bien qu'il soit lui-même protestant. En 1857, il est élu membre de Leopoldina[1].
+À partir de 1841, il est président de la Société médicale et devient médecin à l'hôpital juif en 1842, bien qu'il soit lui-même protestant. En 1857, il est élu membre de Leopoldina.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nazwanie zewnętrznych części ciała końskiego, Vilnius 1820
 Dissertatio inauguralis medico-veterinaria morborum inter animalia domestica observatorum indicem, singolurmque constatissima signa exhibens, adnexa synonymia germanica, gallica, rossica et polonica etc., Vilnius 1824
